--- a/AD419.DataHelper.Web/Content/Sample_Forms/TitleCodesSelfCertify.xlsx
+++ b/AD419.DataHelper.Web/Content/Sample_Forms/TitleCodesSelfCertify.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="362">
   <si>
     <t>TITLE CODE</t>
   </si>
@@ -166,12 +166,6 @@
     <t>PROFESSOR - ACADEMIC YEAR</t>
   </si>
   <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>VST PROFESSOR-ACAD YR-1/9 PMT</t>
-  </si>
-  <si>
     <t>1103</t>
   </si>
   <si>
@@ -190,12 +184,6 @@
     <t>ACT PROF-AY</t>
   </si>
   <si>
-    <t>1108</t>
-  </si>
-  <si>
-    <t>VISITING PROFESSOR-ACADEMIC YR</t>
-  </si>
-  <si>
     <t>1109</t>
   </si>
   <si>
@@ -217,12 +205,6 @@
     <t>PROFESSOR-FISCAL YR-RECALLED</t>
   </si>
   <si>
-    <t>1118</t>
-  </si>
-  <si>
-    <t>VISITING PROFESSOR - FISCAL YR</t>
-  </si>
-  <si>
     <t>1132</t>
   </si>
   <si>
@@ -277,48 +259,24 @@
     <t>ACT PROF-LAW SCHOOL</t>
   </si>
   <si>
-    <t>1188</t>
-  </si>
-  <si>
-    <t>VST PROFESSOR-LAW SCHOOL SCALE</t>
-  </si>
-  <si>
     <t>1200</t>
   </si>
   <si>
     <t>ASSOCIATE PROFESSOR-ACAD YR</t>
   </si>
   <si>
-    <t>1202</t>
-  </si>
-  <si>
-    <t>VST ASSOC PROFESSOR-AY-1/9TH</t>
-  </si>
-  <si>
     <t>1203</t>
   </si>
   <si>
     <t>ASSOC PROF-AY-1/9</t>
   </si>
   <si>
-    <t>1208</t>
-  </si>
-  <si>
-    <t>VST ASSOC PROFESSOR-ACAD YR</t>
-  </si>
-  <si>
     <t>1210</t>
   </si>
   <si>
     <t>ASSOC PROFESSOR - FISCAL YR</t>
   </si>
   <si>
-    <t>1218</t>
-  </si>
-  <si>
-    <t>VST ASSOC PROFESSOR-FISCAL YR</t>
-  </si>
-  <si>
     <t>1243</t>
   </si>
   <si>
@@ -349,12 +307,6 @@
     <t>ASST PROF-AY</t>
   </si>
   <si>
-    <t>1302</t>
-  </si>
-  <si>
-    <t>VST ASST PROFESSOR-ACAD YR-1/9</t>
-  </si>
-  <si>
     <t>1303</t>
   </si>
   <si>
@@ -367,12 +319,6 @@
     <t>ACT ASST PROF-AY</t>
   </si>
   <si>
-    <t>1308</t>
-  </si>
-  <si>
-    <t>VIS ASST PROF</t>
-  </si>
-  <si>
     <t>1310</t>
   </si>
   <si>
@@ -385,12 +331,6 @@
     <t>ACT ASST PROFESSOR -FISCAL YR</t>
   </si>
   <si>
-    <t>1318</t>
-  </si>
-  <si>
-    <t>VST ASST PROFESSOR -FISCAL YR</t>
-  </si>
-  <si>
     <t>1330</t>
   </si>
   <si>
@@ -415,60 +355,6 @@
     <t>ASST PROF-AY-1/9-B/E/E</t>
   </si>
   <si>
-    <t>1421</t>
-  </si>
-  <si>
-    <t>VSTG PROF-ACAD YR-BUS/ECON/ENG</t>
-  </si>
-  <si>
-    <t>1423</t>
-  </si>
-  <si>
-    <t>VSTG PROF-AY-1/9-BUS/ECON/ENGR</t>
-  </si>
-  <si>
-    <t>1424</t>
-  </si>
-  <si>
-    <t>VSTG ASO PRO-AY-BUS/ECON/ENGR</t>
-  </si>
-  <si>
-    <t>1426</t>
-  </si>
-  <si>
-    <t>VSTG ASO PRO-AY-1/9-B/ECON/ENG</t>
-  </si>
-  <si>
-    <t>1427</t>
-  </si>
-  <si>
-    <t>VSTG AST PRO-AY-BUS/ECON/ENGR</t>
-  </si>
-  <si>
-    <t>1428</t>
-  </si>
-  <si>
-    <t>VSTG AST PRO-FY-BUS/ECON/ENG</t>
-  </si>
-  <si>
-    <t>1429</t>
-  </si>
-  <si>
-    <t>VSTG AST PRO-AY-1/9-B/ECON/ENG</t>
-  </si>
-  <si>
-    <t>1431</t>
-  </si>
-  <si>
-    <t>VIS PROFESSOR-GENCOMP</t>
-  </si>
-  <si>
-    <t>1433</t>
-  </si>
-  <si>
-    <t>VIS ASST PROFESSOR-GENCOMP</t>
-  </si>
-  <si>
     <t>1450</t>
   </si>
   <si>
@@ -547,24 +433,6 @@
     <t>RESEARCH PROFESSOR</t>
   </si>
   <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>VIS ASST PROFESSOR-MEDCOMP</t>
-  </si>
-  <si>
-    <t>1713</t>
-  </si>
-  <si>
-    <t>VIS ASSOC PROF-HCOMP</t>
-  </si>
-  <si>
-    <t>1714</t>
-  </si>
-  <si>
-    <t>VISITING PROFESSOR-HCOMP</t>
-  </si>
-  <si>
     <t>1717</t>
   </si>
   <si>
@@ -1054,12 +922,6 @@
     <t>RES-SFT</t>
   </si>
   <si>
-    <t>3208</t>
-  </si>
-  <si>
-    <t>VIS RES</t>
-  </si>
-  <si>
     <t>3209</t>
   </si>
   <si>
@@ -1090,12 +952,6 @@
     <t>ASSOCIATE RESEARCH---SFT</t>
   </si>
   <si>
-    <t>3218</t>
-  </si>
-  <si>
-    <t>VST ASSOC RES ---- - FISCAL YR</t>
-  </si>
-  <si>
     <t>3220</t>
   </si>
   <si>
@@ -1120,12 +976,6 @@
     <t>ASSISTANT RESEARCH-----SFT</t>
   </si>
   <si>
-    <t>3228</t>
-  </si>
-  <si>
-    <t>VST ASST RES ----- -FISCAL YR</t>
-  </si>
-  <si>
     <t>3258</t>
   </si>
   <si>
@@ -1244,6 +1094,12 @@
   </si>
   <si>
     <t>--- IN THE AES-BUS/ECON/ENG</t>
+  </si>
+  <si>
+    <t>3392</t>
+  </si>
+  <si>
+    <t>ASSOC PROJ SCIENTIST-FY</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1329,32 +1185,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9BC2E6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF9BC2E6"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9BC2E6"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9BC2E6"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1374,7 +1210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1384,19 +1220,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,7 +1239,40 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1740,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1756,12 +1619,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1769,7 +1632,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1777,7 +1640,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1785,7 +1648,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -1793,7 +1656,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1801,7 +1664,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1809,7 +1672,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
@@ -1817,7 +1680,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
@@ -1825,7 +1688,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -1833,7 +1696,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
@@ -1841,7 +1704,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
@@ -1849,7 +1712,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
@@ -1857,7 +1720,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
@@ -1865,7 +1728,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
@@ -1873,7 +1736,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
@@ -1881,7 +1744,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
@@ -1889,7 +1752,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
@@ -1897,7 +1760,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
@@ -1905,7 +1768,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
@@ -1913,7 +1776,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
@@ -1921,7 +1784,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
@@ -1929,7 +1792,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
@@ -1937,7 +1800,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
@@ -1945,7 +1808,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
@@ -1953,7 +1816,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
@@ -1969,7 +1832,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
@@ -1977,7 +1840,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
@@ -1985,7 +1848,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
@@ -1993,31 +1856,31 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="B32" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>408</v>
-      </c>
     </row>
     <row r="34" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B34" t="s">
@@ -2033,7 +1896,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B36" t="s">
@@ -2049,7 +1912,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B38" t="s">
@@ -2065,7 +1928,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B40" t="s">
@@ -2081,7 +1944,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B42" t="s">
@@ -2097,7 +1960,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B44" t="s">
@@ -2113,7 +1976,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B46" t="s">
@@ -2129,7 +1992,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B48" t="s">
@@ -2145,7 +2008,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B50" t="s">
@@ -2153,7 +2016,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B51" t="s">
@@ -2161,7 +2024,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B52" t="s">
@@ -2177,7 +2040,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B54" t="s">
@@ -2185,7 +2048,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B55" t="s">
@@ -2193,7 +2056,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B56" t="s">
@@ -2201,7 +2064,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B57" t="s">
@@ -2209,7 +2072,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B58" t="s">
@@ -2225,7 +2088,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B60" t="s">
@@ -2241,7 +2104,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B62" t="s">
@@ -2257,7 +2120,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B64" t="s">
@@ -2273,7 +2136,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B66" t="s">
@@ -2289,7 +2152,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B68" t="s">
@@ -2305,7 +2168,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B70" t="s">
@@ -2313,7 +2176,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B71" t="s">
@@ -2321,7 +2184,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B72" t="s">
@@ -2329,7 +2192,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B73" t="s">
@@ -2337,7 +2200,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B74" t="s">
@@ -2345,7 +2208,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B75" t="s">
@@ -2353,7 +2216,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B76" t="s">
@@ -2361,7 +2224,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B77" t="s">
@@ -2369,7 +2232,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B78" t="s">
@@ -2377,7 +2240,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B79" t="s">
@@ -2385,7 +2248,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B80" t="s">
@@ -2393,7 +2256,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B81" t="s">
@@ -2401,7 +2264,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>161</v>
       </c>
       <c r="B82" t="s">
@@ -2409,7 +2272,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B83" t="s">
@@ -2417,7 +2280,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>165</v>
       </c>
       <c r="B84" t="s">
@@ -2425,7 +2288,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B85" t="s">
@@ -2433,7 +2296,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B86" t="s">
@@ -2441,7 +2304,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B87" t="s">
@@ -2449,7 +2312,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B88" t="s">
@@ -2457,7 +2320,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B89" t="s">
@@ -2465,7 +2328,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>177</v>
       </c>
       <c r="B90" t="s">
@@ -2473,7 +2336,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B91" t="s">
@@ -2481,7 +2344,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B92" t="s">
@@ -2489,7 +2352,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B93" t="s">
@@ -2497,7 +2360,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B94" t="s">
@@ -2505,7 +2368,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B95" t="s">
@@ -2513,7 +2376,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B96" t="s">
@@ -2521,7 +2384,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B97" t="s">
@@ -2529,7 +2392,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B98" t="s">
@@ -2537,7 +2400,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B99" t="s">
@@ -2545,7 +2408,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B100" t="s">
@@ -2553,7 +2416,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B101" t="s">
@@ -2561,7 +2424,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="4" t="s">
         <v>201</v>
       </c>
       <c r="B102" t="s">
@@ -2569,7 +2432,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B103" t="s">
@@ -2577,7 +2440,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>205</v>
       </c>
       <c r="B104" t="s">
@@ -2585,7 +2448,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B105" t="s">
@@ -2593,7 +2456,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B106" t="s">
@@ -2601,7 +2464,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B107" t="s">
@@ -2609,7 +2472,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="4" t="s">
         <v>213</v>
       </c>
       <c r="B108" t="s">
@@ -2617,7 +2480,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B109" t="s">
@@ -2625,7 +2488,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="4" t="s">
         <v>217</v>
       </c>
       <c r="B110" t="s">
@@ -2633,7 +2496,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B111" t="s">
@@ -2641,7 +2504,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B112" t="s">
@@ -2649,7 +2512,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B113" t="s">
@@ -2657,7 +2520,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="4" t="s">
         <v>225</v>
       </c>
       <c r="B114" t="s">
@@ -2665,7 +2528,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B115" t="s">
@@ -2673,7 +2536,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B116" t="s">
@@ -2681,7 +2544,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B117" t="s">
@@ -2689,7 +2552,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="4" t="s">
         <v>233</v>
       </c>
       <c r="B118" t="s">
@@ -2697,7 +2560,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B119" t="s">
@@ -2705,7 +2568,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B120" t="s">
@@ -2713,7 +2576,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B121" t="s">
@@ -2721,7 +2584,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="4" t="s">
         <v>241</v>
       </c>
       <c r="B122" t="s">
@@ -2729,7 +2592,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B123" t="s">
@@ -2737,7 +2600,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="4" t="s">
         <v>245</v>
       </c>
       <c r="B124" t="s">
@@ -2745,7 +2608,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B125" t="s">
@@ -2753,7 +2616,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="4" t="s">
         <v>249</v>
       </c>
       <c r="B126" t="s">
@@ -2761,7 +2624,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B127" t="s">
@@ -2769,7 +2632,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="4" t="s">
         <v>253</v>
       </c>
       <c r="B128" t="s">
@@ -2777,7 +2640,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
+      <c r="A129" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B129" t="s">
@@ -2785,7 +2648,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B130" t="s">
@@ -2793,7 +2656,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B131" t="s">
@@ -2801,7 +2664,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B132" t="s">
@@ -2809,7 +2672,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B133" t="s">
@@ -2817,7 +2680,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="4" t="s">
         <v>265</v>
       </c>
       <c r="B134" t="s">
@@ -2825,191 +2688,191 @@
       </c>
     </row>
     <row r="135" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="5" t="s">
+      <c r="B136" t="s">
         <v>269</v>
       </c>
-      <c r="B136" t="s">
+    </row>
+    <row r="137" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
+      <c r="B137" t="s">
         <v>271</v>
       </c>
-      <c r="B137" t="s">
+    </row>
+    <row r="138" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="5" t="s">
+      <c r="B138" t="s">
         <v>273</v>
       </c>
-      <c r="B138" t="s">
+    </row>
+    <row r="139" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
+      <c r="B139" t="s">
         <v>275</v>
       </c>
-      <c r="B139" t="s">
+    </row>
+    <row r="140" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="s">
+      <c r="B140" t="s">
         <v>277</v>
       </c>
-      <c r="B140" t="s">
+    </row>
+    <row r="141" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
+      <c r="B141" t="s">
         <v>279</v>
       </c>
-      <c r="B141" t="s">
+    </row>
+    <row r="142" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="5" t="s">
+      <c r="B142" t="s">
         <v>281</v>
       </c>
-      <c r="B142" t="s">
+    </row>
+    <row r="143" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+      <c r="B143" t="s">
         <v>283</v>
       </c>
-      <c r="B143" t="s">
+    </row>
+    <row r="144" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5" t="s">
+      <c r="B144" t="s">
         <v>285</v>
       </c>
-      <c r="B144" t="s">
+    </row>
+    <row r="145" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
+      <c r="B145" t="s">
         <v>287</v>
       </c>
-      <c r="B145" t="s">
+    </row>
+    <row r="146" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="s">
+      <c r="B146" t="s">
         <v>289</v>
       </c>
-      <c r="B146" t="s">
+    </row>
+    <row r="147" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
+      <c r="B147" t="s">
         <v>291</v>
       </c>
-      <c r="B147" t="s">
+    </row>
+    <row r="148" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5" t="s">
+      <c r="B148" t="s">
         <v>293</v>
       </c>
-      <c r="B148" t="s">
+    </row>
+    <row r="149" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
+      <c r="B149" t="s">
         <v>295</v>
       </c>
-      <c r="B149" t="s">
+    </row>
+    <row r="150" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5" t="s">
+      <c r="B150" t="s">
         <v>297</v>
       </c>
-      <c r="B150" t="s">
+    </row>
+    <row r="151" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
+      <c r="B151" t="s">
         <v>299</v>
       </c>
-      <c r="B151" t="s">
+    </row>
+    <row r="152" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5" t="s">
+      <c r="B152" t="s">
         <v>301</v>
-      </c>
-      <c r="B152" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B153" t="s">
         <v>303</v>
       </c>
-      <c r="B153" t="s">
+    </row>
+    <row r="154" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5" t="s">
+      <c r="B154" t="s">
         <v>305</v>
-      </c>
-      <c r="B154" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155" t="s">
         <v>307</v>
       </c>
-      <c r="B155" t="s">
+    </row>
+    <row r="156" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5" t="s">
+      <c r="B156" t="s">
         <v>309</v>
-      </c>
-      <c r="B156" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B157" t="s">
         <v>311</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>409</v>
-      </c>
     </row>
     <row r="158" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="4" t="s">
         <v>312</v>
       </c>
       <c r="B158" t="s">
@@ -3017,7 +2880,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B159" t="s">
@@ -3025,7 +2888,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="4" t="s">
         <v>316</v>
       </c>
       <c r="B160" t="s">
@@ -3033,7 +2896,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B161" t="s">
@@ -3041,7 +2904,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B162" t="s">
@@ -3057,7 +2920,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="3" t="s">
         <v>324</v>
       </c>
       <c r="B164" t="s">
@@ -3073,7 +2936,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B166" t="s">
@@ -3089,7 +2952,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B168" t="s">
@@ -3105,7 +2968,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="3" t="s">
         <v>336</v>
       </c>
       <c r="B170" t="s">
@@ -3121,7 +2984,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B172" t="s">
@@ -3137,7 +3000,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B174" t="s">
@@ -3153,7 +3016,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B176" t="s">
@@ -3169,7 +3032,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B178" t="s">
@@ -3185,7 +3048,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="5" t="s">
+      <c r="A180" s="3" t="s">
         <v>356</v>
       </c>
       <c r="B180" t="s">
@@ -3194,210 +3057,38 @@
     </row>
     <row r="181" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B182" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="B183" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B184" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B185" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B186" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B187" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B188" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B189" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B190" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B191" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="B192" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="B193" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="B194" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="B195" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B196" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B197" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B198" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B199" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B200" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B201" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="B202" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B203" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B204" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
+    <row r="182" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <conditionalFormatting sqref="A2:B205">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <sortState ref="A2:B205">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <conditionalFormatting sqref="A2:B181">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>MOD(ROW(),1)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
